--- a/data/result/세종_월별_실거래지수_이동데이터.xlsx
+++ b/data/result/세종_월별_실거래지수_이동데이터.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Mini-Project2\data\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -454,12 +459,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -467,8 +472,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -514,15 +526,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,9 +616,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,6 +651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -805,14 +827,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,7 +904,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +936,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -940,7 +968,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,12 +1000,12 @@
         <v>979</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>95.09999999999999</v>
+        <v>95.1</v>
       </c>
       <c r="C6">
         <v>1542</v>
@@ -1004,7 +1032,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1036,12 +1064,12 @@
         <v>826</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="C8">
         <v>1332</v>
@@ -1068,12 +1096,12 @@
         <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="C9">
         <v>1581</v>
@@ -1100,12 +1128,12 @@
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="C10">
         <v>1202</v>
@@ -1132,12 +1160,12 @@
         <v>723</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="C11">
         <v>1740</v>
@@ -1164,7 +1192,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1224,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1256,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1320,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1324,12 +1352,12 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="C17">
         <v>2903</v>
@@ -1356,7 +1384,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1388,12 +1416,12 @@
         <v>876</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>97.09999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="C19">
         <v>2272</v>
@@ -1420,7 +1448,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1452,12 +1480,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="C21">
         <v>4434</v>
@@ -1484,12 +1512,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="C22">
         <v>5536</v>
@@ -1516,7 +1544,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1576,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1580,12 +1608,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="C25">
         <v>11365</v>
@@ -1612,12 +1640,12 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="C26">
         <v>8109</v>
@@ -1644,7 +1672,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1676,12 +1704,12 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="C28">
         <v>8272</v>
@@ -1708,7 +1736,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1740,12 +1768,12 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="C30">
         <v>5442</v>
@@ -1772,12 +1800,12 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="C31">
         <v>5252</v>
@@ -1804,12 +1832,12 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="C32">
         <v>6519</v>
@@ -1836,7 +1864,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1896,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1900,12 +1928,12 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="C35">
         <v>6652</v>
@@ -1932,7 +1960,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1964,12 +1992,12 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="C37">
         <v>7594</v>
@@ -1996,7 +2024,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2028,7 +2056,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2088,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2092,7 +2120,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2124,7 +2152,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2156,12 +2184,12 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="C43">
         <v>4646</v>
@@ -2188,7 +2216,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2220,7 +2248,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2252,12 +2280,12 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="C46">
         <v>3965</v>
@@ -2284,7 +2312,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2316,7 +2344,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2348,7 +2376,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2412,12 +2440,12 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="C51">
         <v>7066</v>
@@ -2444,7 +2472,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2476,12 +2504,12 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="C53">
         <v>6298</v>
@@ -2508,12 +2536,12 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B54">
-        <v>96.09999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="C54">
         <v>9434</v>
@@ -2540,7 +2568,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2572,7 +2600,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2604,7 +2632,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2636,12 +2664,12 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="C58">
         <v>5518</v>
@@ -2668,7 +2696,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2700,7 +2728,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -2732,12 +2760,12 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B61">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="C61">
         <v>7115</v>
@@ -2764,7 +2792,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -2796,7 +2824,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,7 +2856,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -2860,7 +2888,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,7 +2920,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,7 +2952,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,7 +2984,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,7 +3016,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,7 +3048,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -3052,7 +3080,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -3084,7 +3112,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -3116,7 +3144,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -3148,7 +3176,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -3180,7 +3208,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -3212,7 +3240,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -3244,12 +3272,12 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B77">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="C77">
         <v>5500</v>
@@ -3276,7 +3304,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -3308,7 +3336,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -3340,7 +3368,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -3372,12 +3400,12 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B81">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="C81">
         <v>6269</v>
@@ -3404,7 +3432,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -3436,7 +3464,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -3468,7 +3496,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -3500,7 +3528,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -3564,7 +3592,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -3596,7 +3624,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -3628,7 +3656,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -3660,7 +3688,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -3692,7 +3720,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -3724,7 +3752,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -3756,12 +3784,12 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B93">
-        <v>146.2</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="C93">
         <v>5577</v>
@@ -3788,12 +3816,12 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B94">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="C94">
         <v>5547</v>
@@ -3820,7 +3848,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -3852,12 +3880,12 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B96">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="C96">
         <v>8039</v>
@@ -3884,7 +3912,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -3916,7 +3944,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -3948,7 +3976,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +4008,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -4012,7 +4040,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -4044,7 +4072,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -4076,7 +4104,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -4108,7 +4136,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -4140,7 +4168,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -4172,7 +4200,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -4204,7 +4232,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -4236,7 +4264,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -4268,7 +4296,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -4300,12 +4328,12 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B110">
-        <v>152.3</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="C110">
         <v>9763</v>
@@ -4332,12 +4360,12 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B111">
-        <v>152.8</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="C111">
         <v>8610</v>
@@ -4364,12 +4392,12 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B112">
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="C112">
         <v>5826</v>
@@ -4396,12 +4424,12 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B113">
-        <v>149.7</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="C113">
         <v>4874</v>
@@ -4428,12 +4456,12 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B114">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="C114">
         <v>5434</v>
@@ -4460,7 +4488,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
@@ -4492,7 +4520,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -4524,7 +4552,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -4556,12 +4584,12 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B118">
-        <v>132.3</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="C118">
         <v>4055</v>
@@ -4588,7 +4616,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -4620,7 +4648,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
@@ -4652,7 +4680,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
@@ -4684,7 +4712,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>130</v>
       </c>
@@ -4716,7 +4744,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
@@ -4748,7 +4776,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
@@ -4780,7 +4808,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -4812,12 +4840,12 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B126">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="C126">
         <v>4125</v>
@@ -4844,7 +4872,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
@@ -4876,7 +4904,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
@@ -4908,7 +4936,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
@@ -4940,12 +4968,12 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B130">
-        <v>133.7</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="C130">
         <v>3665</v>
@@ -4972,7 +5000,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
@@ -5004,7 +5032,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
@@ -5036,7 +5064,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
@@ -5068,7 +5096,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
@@ -5100,7 +5128,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
@@ -5132,12 +5160,12 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B136">
-        <v>128.3</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="C136">
         <v>5383</v>
@@ -5165,6 +5193,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>